--- a/biology/Médecine/Ali_Ben_Ibrahim_Al_Andaloussi/Ali_Ben_Ibrahim_Al_Andaloussi.xlsx
+++ b/biology/Médecine/Ali_Ben_Ibrahim_Al_Andaloussi/Ali_Ben_Ibrahim_Al_Andaloussi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Ali Ben Ibrahim Al Andaloussi (décédé en 1654) est un grand médecin enseignant de médecine marocain du temps de la dynastie des Saadiens. Il a écrit plusieurs urjuza (épîtres), dont Urjuza sur les fruits d'été et d'automne.
 Urjuza sur le traitement des maladies des yeux où sont énumérés 23 médicaments pour les affections des yeux.
-Les herbes et leurs caractéristiques dans le traitement des maladies qui sont classées par ordre alphabétique[1].</t>
+Les herbes et leurs caractéristiques dans le traitement des maladies qui sont classées par ordre alphabétique.</t>
         </is>
       </c>
     </row>
